--- a/trunk/Seagle Sim/1-16-2010 test data.xlsx
+++ b/trunk/Seagle Sim/1-16-2010 test data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>straight run</t>
   </si>
@@ -45,9 +45,6 @@
     <t>jason</t>
   </si>
   <si>
-    <t>jason's friend</t>
-  </si>
-  <si>
     <t>left</t>
   </si>
   <si>
@@ -58,6 +55,42 @@
   </si>
   <si>
     <t>stopping</t>
+  </si>
+  <si>
+    <t>jordan</t>
+  </si>
+  <si>
+    <t>left voltage</t>
+  </si>
+  <si>
+    <t>right voltage</t>
+  </si>
+  <si>
+    <t>time (s)</t>
+  </si>
+  <si>
+    <t>distance (ft)</t>
+  </si>
+  <si>
+    <t>velocity (ft/s)</t>
+  </si>
+  <si>
+    <t>velocity (m/s)</t>
+  </si>
+  <si>
+    <t>voltage sum</t>
+  </si>
+  <si>
+    <t>angle</t>
+  </si>
+  <si>
+    <t>turn rat (deg/s)</t>
+  </si>
+  <si>
+    <t>average (s)</t>
+  </si>
+  <si>
+    <t>right-left</t>
   </si>
 </sst>
 </file>
@@ -93,8 +126,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -102,6 +136,361 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Velocity vs V-diff</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.4971284634760704</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3930312500000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1808476821192055</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83477528089887632</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36962686567164182</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.432433361994841</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.75683972911963893</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.99588118811881177</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.1931672597864769</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.0885714285714285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="44590592"/>
+        <c:axId val="44589056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="44590592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44589056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="44589056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44590592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Turnrate vs V-diff</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$17:$J$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$17:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>120.53571428571429</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>119.77818853974124</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.62111801242236</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.361065283997178</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.024706609017912</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.005865102639298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73.519400953029276</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.539170506912441</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>118.37778589696748</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>119.77818853974124</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="81182720"/>
+        <c:axId val="81184640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="81182720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="81184640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="81184640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="81182720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,18 +778,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,18 +811,39 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -439,8 +857,34 @@
       <c r="G2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="J2">
+        <f>B3-2.5</f>
+        <v>2.5</v>
+      </c>
+      <c r="K2">
+        <f>C3-2.5</f>
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>7.94</v>
+      </c>
+      <c r="M2">
+        <v>39</v>
+      </c>
+      <c r="N2">
+        <f>M2/L2</f>
+        <v>4.9118387909319896</v>
+      </c>
+      <c r="O2">
+        <f>N2*0.3048</f>
+        <v>1.4971284634760704</v>
+      </c>
+      <c r="P2">
+        <f>J2+K2</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>1</v>
       </c>
@@ -463,8 +907,34 @@
         <f>AVERAGE(D3,E3,F3)</f>
         <v>7.94</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="J3">
+        <f t="shared" ref="J3:J5" si="0">B4-2.5</f>
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K5" si="1">C4-2.5</f>
+        <v>1.8499999999999996</v>
+      </c>
+      <c r="L3">
+        <v>8.5333333333333332</v>
+      </c>
+      <c r="M3">
+        <v>39</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N12" si="2">M3/L3</f>
+        <v>4.5703125</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O12" si="3">N3*0.3048</f>
+        <v>1.3930312500000002</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P12" si="4">J3+K3</f>
+        <v>3.8499999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>2</v>
       </c>
@@ -484,11 +954,37 @@
         <v>8.58</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G12" si="0">AVERAGE(D4,E4,F4)</f>
+        <f t="shared" ref="G4:G13" si="5">AVERAGE(D4,E4,F4)</f>
         <v>8.5333333333333332</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="L4">
+        <v>10.066666666666665</v>
+      </c>
+      <c r="M4">
+        <v>39</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>3.8741721854304645</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="3"/>
+        <v>1.1808476821192055</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="4"/>
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>3</v>
       </c>
@@ -508,11 +1004,37 @@
         <v>10.220000000000001</v>
       </c>
       <c r="G5">
+        <f t="shared" si="5"/>
+        <v>10.066666666666665</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="0"/>
-        <v>10.066666666666665</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>0.99000000000000021</v>
+      </c>
+      <c r="L5">
+        <v>14.24</v>
+      </c>
+      <c r="M5">
+        <v>39</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>2.73876404494382</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="3"/>
+        <v>0.83477528089887632</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="4"/>
+        <v>1.9900000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>4</v>
       </c>
@@ -532,557 +1054,856 @@
         <v>14.47</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>14.24</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
+      <c r="J6">
+        <f>B8-2.5</f>
+        <v>0.5</v>
+      </c>
+      <c r="K6">
+        <f>C8-2.5</f>
+        <v>0.5</v>
+      </c>
+      <c r="L6">
+        <v>10.72</v>
+      </c>
+      <c r="M6">
+        <v>13</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>1.2126865671641791</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="3"/>
+        <v>0.36962686567164182</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>3</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>10.8</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>10.26</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>11.1</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
+      <c r="G8">
+        <f t="shared" si="5"/>
         <v>10.72</v>
-      </c>
-      <c r="H7">
-        <f>G7*3</f>
-        <v>32.160000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0.7</v>
-      </c>
-      <c r="D8">
-        <v>5.8</v>
-      </c>
-      <c r="E8">
-        <v>6.56</v>
-      </c>
-      <c r="F8">
-        <v>6.12</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>6.16</v>
       </c>
       <c r="H8">
         <f>G8*3</f>
+        <v>32.160000000000004</v>
+      </c>
+      <c r="J8">
+        <v>-0.5</v>
+      </c>
+      <c r="K8">
+        <v>-0.5</v>
+      </c>
+      <c r="L8">
+        <v>15.506666666666666</v>
+      </c>
+      <c r="M8">
+        <v>-22</v>
+      </c>
+      <c r="N8">
+        <f>M8/L8</f>
+        <v>-1.418744625967326</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>-0.432433361994841</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.7</v>
+      </c>
+      <c r="D9">
+        <v>5.8</v>
+      </c>
+      <c r="E9">
+        <v>6.56</v>
+      </c>
+      <c r="F9">
+        <v>6.12</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="5"/>
+        <v>6.16</v>
+      </c>
+      <c r="H9">
+        <f>G9*3</f>
         <v>18.48</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
+      <c r="J9">
+        <v>-1</v>
+      </c>
+      <c r="K9">
+        <f>1.55-2.5</f>
+        <v>-0.95</v>
+      </c>
+      <c r="L9">
+        <v>8.86</v>
+      </c>
+      <c r="M9">
+        <v>-22</v>
+      </c>
+      <c r="N9">
+        <f>M9/L9</f>
+        <v>-2.4830699774266369</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>-0.75683972911963893</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="4"/>
+        <v>-1.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>0.5</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>0.8</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>5.5</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <f>12.18-6.56</f>
         <v>5.62</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>5.74</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
+      <c r="G10">
+        <f t="shared" si="5"/>
         <v>5.62</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
+      <c r="J10">
+        <v>-1.5</v>
+      </c>
+      <c r="K10">
+        <f>1.2-2.5</f>
+        <v>-1.3</v>
+      </c>
+      <c r="L10">
+        <v>6.7333333333333343</v>
+      </c>
+      <c r="M10">
+        <v>-22</v>
+      </c>
+      <c r="N10">
+        <f>M10/L10</f>
+        <v>-3.2673267326732667</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>-0.99588118811881177</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="4"/>
+        <v>-2.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>1.2</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>6.5</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>7.05</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>6.65</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
+      <c r="G11">
+        <f t="shared" si="5"/>
         <v>6.7333333333333343</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
+      <c r="J11">
+        <v>-2</v>
+      </c>
+      <c r="K11">
+        <f>0.8-2.5</f>
+        <v>-1.7</v>
+      </c>
+      <c r="L11">
+        <v>5.62</v>
+      </c>
+      <c r="M11">
+        <v>-22</v>
+      </c>
+      <c r="N11">
+        <f>M11/L11</f>
+        <v>-3.9145907473309607</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>-1.1931672597864769</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="4"/>
+        <v>-3.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>1.5</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>1.55</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>8.8699999999999992</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>8.51</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
+      <c r="G12">
+        <f t="shared" si="5"/>
         <v>8.86</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
+      <c r="J12">
+        <v>-2.5</v>
+      </c>
+      <c r="K12">
+        <f>0.7-2.5</f>
+        <v>-1.8</v>
+      </c>
+      <c r="L12">
+        <v>6.16</v>
+      </c>
+      <c r="M12">
+        <v>-22</v>
+      </c>
+      <c r="N12">
+        <f>M12/L12</f>
+        <v>-3.5714285714285712</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>-1.0885714285714285</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="4"/>
+        <v>-4.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>2</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>15.7</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>15.41</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>15.41</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
+      <c r="G13">
+        <f t="shared" si="5"/>
         <v>15.506666666666666</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>2</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>3</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>4</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16">
+      <c r="D17">
         <v>9</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>8.8699999999999992</v>
-      </c>
-      <c r="F16">
-        <v>9.01</v>
-      </c>
-      <c r="G16">
-        <f>AVERAGE(D16,E16,F16)</f>
-        <v>8.9599999999999991</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17">
-        <v>0.5</v>
-      </c>
-      <c r="C17">
-        <v>4.5</v>
-      </c>
-      <c r="D17">
-        <v>9.1</v>
-      </c>
-      <c r="E17">
-        <v>8.94</v>
       </c>
       <c r="F17">
         <v>9.01</v>
       </c>
       <c r="G17">
-        <f t="shared" ref="G17:G25" si="1">AVERAGE(D17,E17,F17)</f>
+        <f>AVERAGE(D17,E17,F17)</f>
+        <v>8.9599999999999991</v>
+      </c>
+      <c r="H17">
+        <v>1080</v>
+      </c>
+      <c r="I17">
+        <f>H17/G17</f>
+        <v>120.53571428571429</v>
+      </c>
+      <c r="J17">
+        <f>C17-B17</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>0.5</v>
+      </c>
+      <c r="C18">
+        <v>4.5</v>
+      </c>
+      <c r="D18">
+        <v>9.1</v>
+      </c>
+      <c r="E18">
+        <v>8.94</v>
+      </c>
+      <c r="F18">
+        <v>9.01</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18:G27" si="6">AVERAGE(D18,E18,F18)</f>
         <v>9.0166666666666657</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
+      <c r="H18">
+        <v>1080</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ref="I18:I27" si="7">H18/G18</f>
+        <v>119.77818853974124</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ref="J18:J27" si="8">C18-B18</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
         <v>3</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>1</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>4</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>10.8</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>10.7</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>10.7</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
+      <c r="G19">
+        <f t="shared" si="6"/>
         <v>10.733333333333334</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
+      <c r="H19">
+        <v>1080</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="7"/>
+        <v>100.62111801242236</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
         <v>4</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>1.5</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>3.5</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>14.2</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>14.18</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>14.05</v>
       </c>
-      <c r="G19">
-        <f t="shared" si="1"/>
+      <c r="G20">
+        <f t="shared" si="6"/>
         <v>14.143333333333333</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
+      <c r="H20">
+        <v>1080</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="7"/>
+        <v>76.361065283997178</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
         <v>5</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>2</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>3</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>27.1</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>26.89</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>26.96</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="1"/>
+      <c r="G21">
+        <f t="shared" si="6"/>
         <v>26.983333333333334</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
+      <c r="H21">
+        <v>1080</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="7"/>
+        <v>40.024706609017912</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
         <v>6</v>
       </c>
-      <c r="B21">
+      <c r="B23">
         <v>3</v>
       </c>
-      <c r="C21">
+      <c r="C23">
         <v>2</v>
       </c>
-      <c r="D21">
+      <c r="D23">
         <v>28.6</v>
       </c>
-      <c r="E21">
+      <c r="E23">
         <v>28.3</v>
       </c>
-      <c r="F21">
+      <c r="F23">
         <v>28.35</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
+      <c r="G23">
+        <f t="shared" si="6"/>
         <v>28.416666666666668</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
+      <c r="H23">
+        <v>1080</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="7"/>
+        <v>38.005865102639298</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
         <v>7</v>
       </c>
-      <c r="B22">
+      <c r="B24">
         <v>3.5</v>
       </c>
-      <c r="C22">
+      <c r="C24">
         <v>1.5</v>
       </c>
-      <c r="D22">
+      <c r="D24">
         <v>14.7</v>
       </c>
-      <c r="E22">
+      <c r="E24">
         <v>14.6</v>
       </c>
-      <c r="F22">
+      <c r="F24">
         <v>14.77</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
+      <c r="G24">
+        <f t="shared" si="6"/>
         <v>14.689999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
+      <c r="H24">
+        <v>1080</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="7"/>
+        <v>73.519400953029276</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="8"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
         <v>8</v>
       </c>
-      <c r="B23">
+      <c r="B25">
         <v>4</v>
       </c>
-      <c r="C23">
+      <c r="C25">
         <v>1</v>
       </c>
-      <c r="D23">
+      <c r="D25">
         <v>11</v>
       </c>
-      <c r="E23">
+      <c r="E25">
         <v>10.75</v>
       </c>
-      <c r="F23">
+      <c r="F25">
         <v>10.8</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="1"/>
+      <c r="G25">
+        <f t="shared" si="6"/>
         <v>10.85</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
+      <c r="H25">
+        <v>1080</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="7"/>
+        <v>99.539170506912441</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="8"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
         <v>9</v>
       </c>
-      <c r="B24">
+      <c r="B26">
         <v>4.5</v>
       </c>
-      <c r="C24">
+      <c r="C26">
         <v>0.5</v>
       </c>
-      <c r="D24">
+      <c r="D26">
         <v>9.1</v>
       </c>
-      <c r="E24">
+      <c r="E26">
         <v>9.2200000000000006</v>
       </c>
-      <c r="F24">
+      <c r="F26">
         <v>9.0500000000000007</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="1"/>
+      <c r="G26">
+        <f t="shared" si="6"/>
         <v>9.1233333333333331</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
+      <c r="H26">
+        <v>1080</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="7"/>
+        <v>118.37778589696748</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="8"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
         <v>10</v>
       </c>
-      <c r="B25">
+      <c r="B27">
         <v>5</v>
       </c>
-      <c r="C25">
+      <c r="C27">
         <v>0</v>
       </c>
-      <c r="D25">
+      <c r="D27">
         <v>9</v>
       </c>
-      <c r="E25">
+      <c r="E27">
         <v>9.01</v>
       </c>
-      <c r="F25">
+      <c r="F27">
         <v>9.0399999999999991</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="1"/>
+      <c r="G27">
+        <f t="shared" si="6"/>
         <v>9.0166666666666657</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
+      <c r="H27">
+        <v>1080</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="7"/>
+        <v>119.77818853974124</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="8"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
         <v>6</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
         <v>10</v>
       </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="D31" t="s">
         <v>2</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E31" t="s">
         <v>3</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F31" t="s">
         <v>4</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G31" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
+    <row r="32" spans="1:10">
+      <c r="A32">
         <v>1</v>
       </c>
-      <c r="B30">
+      <c r="B32">
         <v>5</v>
       </c>
-      <c r="C30">
+      <c r="C32">
         <v>4.5</v>
       </c>
-      <c r="D30">
+      <c r="D32">
         <v>10.6</v>
       </c>
-      <c r="E30">
+      <c r="E32">
         <v>11.96</v>
       </c>
-      <c r="F30">
+      <c r="F32">
         <v>11.24</v>
       </c>
-      <c r="G30">
-        <f t="shared" ref="G30:G39" si="2">AVERAGE(D30,E30,F30)</f>
+      <c r="G32">
+        <f t="shared" ref="G32:G35" si="9">AVERAGE(D32,E32,F32)</f>
         <v>11.266666666666667</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>2</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0.7</v>
-      </c>
-      <c r="D31">
-        <v>10.89</v>
-      </c>
-      <c r="E31">
-        <v>10.8</v>
-      </c>
-      <c r="F31">
-        <v>11.07</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="2"/>
-        <v>10.920000000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>3</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>5</v>
-      </c>
-      <c r="D32">
-        <v>8.11</v>
-      </c>
-      <c r="E32">
-        <v>8.8699999999999992</v>
-      </c>
-      <c r="F32">
-        <v>8.5</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="2"/>
-        <v>8.4933333333333323</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0.7</v>
+      </c>
+      <c r="D33">
+        <v>10.89</v>
+      </c>
+      <c r="E33">
+        <v>10.8</v>
+      </c>
+      <c r="F33">
+        <v>11.07</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="9"/>
+        <v>10.920000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>8.11</v>
+      </c>
+      <c r="E34">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="F34">
+        <v>8.5</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="9"/>
+        <v>8.4933333333333323</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
         <v>4</v>
       </c>
-      <c r="B33">
+      <c r="B35">
         <v>5</v>
       </c>
-      <c r="C33">
+      <c r="C35">
         <v>0</v>
       </c>
-      <c r="D33">
+      <c r="D35">
         <v>5.25</v>
       </c>
-      <c r="E33">
+      <c r="E35">
         <v>5.45</v>
       </c>
-      <c r="F33">
+      <c r="F35">
         <v>5.5</v>
       </c>
-      <c r="G33">
-        <f t="shared" si="2"/>
+      <c r="G35">
+        <f t="shared" si="9"/>
         <v>5.3999999999999995</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="J7:M11">
+    <sortCondition descending="1" ref="J7:J11"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
